--- a/src/test/resources/Http_Request_workbook_Data.xlsx
+++ b/src/test/resources/Http_Request_workbook_Data.xlsx
@@ -9,17 +9,13 @@
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Baseline" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Output" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Comparison" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Result" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="646">
   <si>
     <t>ID</t>
   </si>
@@ -72,7 +68,7 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>{ "merchant_id":"AAA000000002","user_id":"UR0000001472","session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1","device_token": "test_token"}</t>
+    <t>{ "merchant_id":"MC0000006975","user_id":"UR0000001472","session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1","device_token": "test_token"}</t>
   </si>
   <si>
     <t>(merchant_id)+</t>
@@ -168,7 +164,7 @@
     <r>
       <t xml:space="preserve">{
    "merchant_id": "MC0000007952",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "business_name":"Sharp",
    "address_province_id":"01",
    "address_city_id":"1",
@@ -271,11 +267,11 @@
   </si>
   <si>
     <t>{
-    "phone": "13621643796"
-}</t>
-  </si>
-  <si>
-    <t>(prefix_phone)+.*(expiration)+</t>
+    "phone": "18720984389"
+}</t>
+  </si>
+  <si>
+    <t>(resend_time)+</t>
   </si>
   <si>
     <t>12</t>
@@ -288,8 +284,8 @@
   </si>
   <si>
     <t>{
-   "phone": "13621643891",
-   "password": "123456",
+   "phone": "18720984389",
+   "password": "123456enter",
    "token": "ba85d46474c8fb1ccc4e94015c7a32de",
    "device_token": "test_token",
    "version":"1.0",
@@ -310,11 +306,11 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000010206",
+    "user_id": "UR0000020111",
     "device_token": "test_token",
-    "session_token": "2e947a5e-ac41-11e4-8564-77a7e16f885e",
-    "name": "LIBINGQING",
-    "email": "test2014@pierup.com",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
+    "name": "dsx",
+    "email": "1063072890@qq.com",
     "id_number":"37132419901003251X"
 }</t>
   </si>
@@ -332,9 +328,9 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000001562",
+    "user_id": "UR0000020111",
     "device_token": "test_token",
-    "session_token": "2e947a5e-ac41-11e4-8564-77a7e16f885e"
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -351,11 +347,11 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000000459",
+   "user_id":"UR0000020111",
    "device_token": "test_token",
-   "session_token":"b8ee5ae0-0e6b-11e5-b35c-1eac061866b8",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "type":"1",
-   "email":"456@qq.com"
+   "email":"1063072890@qq.com"
 }</t>
   </si>
   <si>
@@ -366,13 +362,6 @@
   </si>
   <si>
     <t>/user_api_cn/v1/user/signout</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "UR0000020088",
-    "device_token": "test_token",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
   </si>
   <si>
     <t>(message)+.*(result)+</t>
@@ -395,7 +384,7 @@
 }</t>
   </si>
   <si>
-    <t>(info_bit)+.*(status_bit)+.*(id_verified)+.*(user_id)+.*(session_token)+.*(name)+</t>
+    <t>(id_image_status)+.*(info_bit)+.*(status_bit)+.*(name)+.*(user_id)+.*(id_verified)+.*(session_token)+</t>
   </si>
   <si>
     <t>18</t>
@@ -407,11 +396,6 @@
     <t>/user_api_cn/v1/user/device_code</t>
   </si>
   <si>
-    <t>{
-    "phone": "18720984389"
-}</t>
-  </si>
-  <si>
     <t>(expiration)+.*(code_id)+.*(sms_no)+</t>
   </si>
   <si>
@@ -425,8 +409,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"71d2c816-0a7f-11e5-b35c-1eac061866b8",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test"
 }</t>
   </si>
@@ -444,8 +428,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"71d2c816-0a7f-11e5-b35c-1eac061866b8",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test",
    "address_id": "AD0000001612"
 }</t>
@@ -464,8 +448,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "name":"QQQWWW",
    "phone":"18720984389",
@@ -490,9 +474,9 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
+   "user_id":"UR0000020111",
    "device_token": "test_token",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "address_id": "AD0000000479"
 }</t>
   </si>
@@ -507,15 +491,15 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "address_id": "AD0000002501",
-   "phone": "12589",
+   "phone": "18720984389",
    "province_id": "03",
    "city_id": "3",
    "county_district_id": "3",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "postal_code": "111222",
    "name": "QQQWWW",
    "address_detail": "ssssddddffff"
@@ -532,9 +516,9 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
+   "user_id":"UR0000020111",
    "device_token": "test_token",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "address_id": "AD0000000481"
 }</t>
   </si>
@@ -549,9 +533,9 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
+   "user_id":"UR0000020111",
    "name": "饶骏华",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token"
 }</t>
   </si>
@@ -580,20 +564,20 @@
   </si>
   <si>
     <t>{
+   "merchant_id": "MC0000006975",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
+}</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Case 29</t>
+  </si>
+  <si>
+    <t>{
    "merchant_id": "MC0000007952",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Case 29</t>
-  </si>
-  <si>
-    <t>{
-   "merchant_id": "MC0000007952",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "business_name":"Sharp",
    "address_province_id":"01",
    "address_city_id":"1",
@@ -617,7 +601,7 @@
   <si>
     <t>{
        "merchant_id": "MC0000007540",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
        "business_license":"330108000023135",
        "organization_code":"123456789",
        "tax_id":"123451234512345",
@@ -636,27 +620,27 @@
   </si>
   <si>
     <t>{
+       "merchant_id": "MC0000006975",
+       "agent_phone":"13761743388",
+       "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
+}</t>
+  </si>
+  <si>
+    <t>(expiration)+.*(resend_time)+.*(code_id)+.*(code)+.*(session_token)+</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Case 32</t>
+  </si>
+  <si>
+    <t>/merchant_api_cn/v1/register/save_agent_info</t>
+  </si>
+  <si>
+    <t>{
        "merchant_id": "MC0000007540",
-       "agent_phone":"13761743388",
-       "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
-  </si>
-  <si>
-    <t>(expiration)+.*(resend_time)+.*(code_id)+.*(code)+.*(session_token)+</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Case 32</t>
-  </si>
-  <si>
-    <t>/merchant_api_cn/v1/register/save_agent_info</t>
-  </si>
-  <si>
-    <t>{
-       "merchant_id": "MC0000007540",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
        "agent_name":"李四",
        "agent_phone":"13761743388",
        "sms_code":"7383",
@@ -673,7 +657,7 @@
   <si>
     <t>{
        "merchant_id": "MC0000007540",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -711,7 +695,7 @@
   <si>
     <t>{
     "merchant_id": "MC0000000273",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -758,7 +742,7 @@
   <si>
     <t>{
    "merchant_id":"MC0000006975",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "client_public_key":"MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQCL7AxDgiPGadomjIjfIwV78TTU6BGyzvvn1lo8x5fre7VX5xIU3tYkOuZ64Wk2iS0eCpX/sBajsL4yjQro0HWD2F8IjFv7IepbhcHAIWY84zaNHFJSiB928+IMJ4NsrXh/EToxfFCkFTaolTE+AuuxvpyT72w20EmrSCqdAZqX8wIDAQAB"
 }</t>
   </si>
@@ -770,6 +754,15 @@
   </si>
   <si>
     <t>/merchant_api_cn/v1/dashboard/profile</t>
+  </si>
+  <si>
+    <t>{
+    "merchant_id": "MC0000006975",
+    "session_token": "ac6d32c8-6043-11e5-8785-6d3eeeeedd88"
+}</t>
+  </si>
+  <si>
+    <t>(phone)+.*(address_district_id)+.*(zip_code)+.*(address_city_id)+.*(address_province_id)+.*(session_token)+.*(business_name)+.*(email)+.*(status_bit)+.*(postal_code)+.*(merchant_id)+.*(agent_name)+.*(web_site)+.*(office_phone)+.*(address_detail)+</t>
   </si>
   <si>
     <t>{
@@ -778,9 +771,6 @@
 }</t>
   </si>
   <si>
-    <t>(phone)+.*(address_district_id)+.*(zip_code)+.*(address_city_id)+.*(address_province_id)+.*(session_token)+.*(business_name)+.*(email)+.*(status_bit)+.*(postal_code)+.*(merchant_id)+.*(agent_name)+.*(web_site)+.*(office_phone)+.*(address_detail)+</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -792,7 +782,7 @@
   <si>
     <t>{
    "merchant_id": "MC0000007952",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "business_name":"Sharp",
    "address_province_id":"02",
    "address_city_id":"2",
@@ -818,7 +808,7 @@
   </si>
   <si>
     <t>{
-    "merchant_id": "MC0000007540",
+    "merchant_id": "MC0000006975",
     "session_token":"4f1c0f84-5b7c-11e5-be20-3beae5baf6a4",
     "agent_phone":"13761743387"
 }</t>
@@ -856,7 +846,7 @@
   </si>
   <si>
     <t>{
-     "merchant_id": "MC0000001409",
+     "merchant_id": "MC0000006975",
      "session_token":"51162fa9-79cb-11e4-a108-b3b264dd2935",
      "user_id":"UR0000001478"
 }</t>
@@ -874,6 +864,13 @@
     <t>/merchant_api_cn/v1/dashboard/list_transactions</t>
   </si>
   <si>
+    <t>{
+       "merchant_id": "MC0000006975",
+       "session_token":"51162fa9-79cb-11e4-a108-b3b264dd2935",
+       "start_date":"2015-01-01"
+}</t>
+  </si>
+  <si>
     <t>(fee)+.*(amount)+.*(id_in_merchant)+.*(created_on)+.*(transaction_id)+</t>
   </si>
   <si>
@@ -887,8 +884,8 @@
   </si>
   <si>
     <t>{
-       "merchant_id": "MC0000001409",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+       "merchant_id": "MC0000006975",
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
        "transaction_id":"MT0000002787",
        "refund_amount":"0.5",
        "comments":"refund"
@@ -909,7 +906,7 @@
   <si>
     <t>{
        "merchant_id": "MC0000001409",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
        "transaction_id":"MT0000002787"
 }</t>
   </si>
@@ -945,12 +942,12 @@
   <si>
     <t>{
        "merchant_id": "MC0000001409",
-       "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+       "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
        "start_date":"2015-09-01"
 }</t>
   </si>
   <si>
-    <t>(total_customers)+.*(total_success_transactions)+.*(gross_amount)+.*(time_key)+.*(success_charge_total)+.*(gross_revenue)+</t>
+    <t>(total_customers)+.*(total_success_transactions)+.*(gross_revenue)+</t>
   </si>
   <si>
     <t>49</t>
@@ -962,27 +959,21 @@
     <t>/merchant_api_cn/v1/order/shipping_company_list</t>
   </si>
   <si>
+    <t>(shipping_company)+.*(api_url)+.*(id)+.*(name)+.*(session_token)+</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Case 50</t>
+  </si>
+  <si>
+    <t>/merchant_api_cn/v1/order/save_logistics_id</t>
+  </si>
+  <si>
     <t>{
    "merchant_id": "MC0000006975",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
-  </si>
-  <si>
-    <t>(shipping_company)+.*(api_url)+.*(id)+.*(name)+.*(session_token)+</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Case 50</t>
-  </si>
-  <si>
-    <t>/merchant_api_cn/v1/order/save_logistics_id</t>
-  </si>
-  <si>
-    <t>{
-   "merchant_id": "MC0000006975",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "order_id":"OR0000000234",
    "shipping_company_id":"SC0000012382",
    "logistics_id":"BV20158889741007"
@@ -1000,7 +991,7 @@
   <si>
     <t>{
    "merchant_id": "MC0000006975",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "shipping_company_id":"SC0000012382",
    "logistics_id":"BV20158889741007"
 }</t>
@@ -1022,7 +1013,7 @@
   "merchant_id":"MC0000006975",
   "start":"0",
   "limit":"5",
-  "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+  "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -1040,7 +1031,7 @@
   <si>
     <t>{
   "merchant_id":"MC0000006975",
-  "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+  "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
   "order_id": "OR0000000020"
 }</t>
   </si>
@@ -1059,7 +1050,7 @@
   <si>
     <t>{
  "merchant_id": "MC0000006975",
- "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+ "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
  "from":"20151201", 
  "to":"20151214"
 }</t>
@@ -1189,7 +1180,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000000459",
+   "user_id":"UR0000020111",
    "shopping_items":[
     {"product_id":"PT0000000001","quantity":"1"},
     {"product_id":"PT0000000002","quantity":"2"}
@@ -1229,7 +1220,7 @@
   <si>
     <t>{
  "admin_id": "AM0000009840",
- "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+ "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -1259,7 +1250,7 @@
   <si>
     <t>{
     "admin_id": "AM0000009840",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
       "oper_admin_id": "AM0000000001",
       "permissions":1
 }</t>
@@ -1276,7 +1267,7 @@
   <si>
     <t>{
     "admin_id": "AM0000000001",
-      "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+      "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
       "old_password":"abc123",
     "password":"123abc"
 }</t>
@@ -1293,7 +1284,7 @@
   <si>
     <t>{
     "admin_id": "AM0000000001",
-      "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+      "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
       "oper_admin_id": "AM0000000001"
 }</t>
   </si>
@@ -1309,7 +1300,7 @@
   <si>
     <t>{
     "admin_id":"AM0000009840",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "active":1,
     "merchant_id":"MC0000006975"
 }</t>
@@ -1429,7 +1420,7 @@
   <si>
     <t>{
     "admin_id":"AM0000009840",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -1447,8 +1438,8 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
-    "user_id":"UR0000001496"
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
+    "user_id":"UR0000020111"
 }</t>
   </si>
   <si>
@@ -1466,8 +1457,8 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
-    "user_id":"UR0000001496",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
+    "user_id":"UR0000020111",
     "last_updated":"20150918154452",
     "audit_result":1
 }</t>
@@ -1484,7 +1475,7 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
     "phone":"11018818235798"
 }</t>
   </si>
@@ -1503,7 +1494,7 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
     "list_type":"0"
 }</t>
   </si>
@@ -1519,7 +1510,7 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
     "id_card_id":"IC0000002508"
 }</t>
   </si>
@@ -1538,7 +1529,7 @@
   <si>
     <t>{
     "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
     "id_card_id": "IC0000005777",
     "last_updated":"20151126100303",
     "audit_result":1
@@ -1555,8 +1546,8 @@
   </si>
   <si>
     <t>{
-    "admin_id":"AM0000011670",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1", 
+    "admin_id":"UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1", 
     "phone":"11018818235798",
     "id_number":"350783199204095555"
 }</t>
@@ -1575,9 +1566,9 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000000459",
+   "user_id":"UR0000020111",
    "device_token": "test_token",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "password": "BC0000001279"
 }</t>
   </si>
@@ -1600,7 +1591,7 @@
     <t>/user_api_cn/v1/user/sms_password_forget</t>
   </si>
   <si>
-    <t>(expiration)+.*(resend_time)+.*(code_id)+.*(code)+.*(sms_no)+</t>
+    <t>(expiration)+.*(resend_time)+.*(code_id)+.*(sms_no)+</t>
   </si>
   <si>
     <t>92</t>
@@ -1644,7 +1635,7 @@
   </si>
   <si>
     <t>{
-    "user_id":"UR0000020088",
+    "user_id":"UR0000020111",
     "session_token":"test",
     "invitation_code":"365WYB",
     "device_token":"test"
@@ -1661,9 +1652,9 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
+   "user_id":"UR0000020111",
    "device_token": "test_token",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -1680,8 +1671,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "bank_card_id": "BC0000001279"
 }</t>
@@ -1709,8 +1700,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token"
 }</t>
   </si>
@@ -1728,9 +1719,9 @@
   </si>
   <si>
     <t>{
- "user_id": "UR0000020088",
+ "user_id": "UR0000020111",
  "device_token": "test_token",
- "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+ "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
  "old_password":"123456a",
  "new_password":"654321a"
 }</t>
@@ -1755,9 +1746,9 @@
   </si>
   <si>
     <t>{
- "user_id": "UR0000020088",
+ "user_id": "UR0000020111",
  "device_token": "test_token",
- "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+ "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
 }</t>
   </si>
   <si>
@@ -1774,10 +1765,10 @@
   </si>
   <si>
     <t>{
- "merchant_id": "AAA000000003",
+ "merchant_id": "MC0000006975",
  "user_id": "UR0000000466",
- "session_token": "test_token",
- "device_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+ "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
+ "device_token": "test_token"
 }</t>
   </si>
   <si>
@@ -1792,9 +1783,9 @@
   <si>
     <t>{
     "merchant_id": "AAA000000002",
-    "user_id": "UR0000001472",
+    "user_id": "UR0000020111",
     "session_token": "test_token",
-    "device_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
+    "device_token": "test_token"
 }</t>
   </si>
   <si>
@@ -1808,8 +1799,8 @@
   </si>
   <si>
     <t>{
-"user_id":"UR0000006207",
-"session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+"user_id":"UR0000020111",
+"session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
 "device_token":"test_token"
 }</t>
   </si>
@@ -1827,8 +1818,8 @@
   </si>
   <si>
     <t>{
-"user_id":"UR0000020088",
-"session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+"user_id":"UR0000020111",
+"session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
 "device_token":"test_token",
 "account_id":"1"
 }</t>
@@ -1847,8 +1838,8 @@
   </si>
   <si>
     <t>{
-    "user_id":"UR0000006207",
-    "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id":"UR0000020111",
+    "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token":"test_token"
 }</t>
   </si>
@@ -1863,8 +1854,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "merchant_id":"MC0000006975",
    "order_id": "OR0000008441"
@@ -1884,8 +1875,8 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020088",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "merchant_id":"MC0000006975",
    "order_id": "OR0000008555",
@@ -1957,8 +1948,8 @@
    "merchant_id":"MC0000006975",
    "order_id": "OR0000008578",
    "address_id":"AD0000009182",
-   "user_id":"UR0000006348",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id":"UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token"
 }</t>
   </si>
@@ -1974,15 +1965,15 @@
   <si>
     <t>{
    "merchant_id":"MC0000006975",
-   "user_id": "UR0000007914",
-   "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+   "user_id": "UR0000020111",
+   "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
    "device_token":"test_token",
    "start":"0",
    "limit":"3"
 }</t>
   </si>
   <si>
-    <t>(merchant_name)+.*(paid_order)+.*(order_info)+.*(title)+.*(image_url)+.*(order_id)+.*(sub_title)+.*(grand_total)+</t>
+    <t>(merchant_name)+.*(paid_order)+.*(session_token)+</t>
   </si>
   <si>
     <t>113</t>
@@ -2015,8 +2006,8 @@
     <t>{
  "logistics_id":"BV20158889741007",
  "shipping_company_id":"SC0000012382",
- "user_id":"UR0000007914",
- "session_token":"fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+ "user_id":"UR0000020111",
+ "session_token":"1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
 "device_token":"test_token"
 }</t>
   </si>
@@ -2106,30 +2097,10 @@
   </si>
   <si>
     <t>{
-   "user_id": "UR0000002731",
+   "user_id": "UR0000020111",
    "device_token":"test_token",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
-  </si>
-  <si>
-    <t>(abstract)+.*(is_group)+.*(image_url)+.*(subject)+.*(fu)+.*(badge)+.*(session_token)+</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Case 124</t>
-  </si>
-  <si>
-    <t>{
-   "user_id": "UR0000020088",
-   "device_token":"test_token",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
-   "from_user":"AAA000000001"
-}</t>
-  </si>
-  <si>
-    <t>(message_abstract)+.*(image_url)+.*(message_detail)+.*(created_on)+.*(inbox_id)+.*(session_token)+</t>
+   "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1"
+}</t>
   </si>
   <si>
     <t>125</t>
@@ -2141,13 +2112,6 @@
     <t>/user_api_cn/v1/inbox/inbox_template</t>
   </si>
   <si>
-    <t>{
-   "user_id": "UR0000020088",
-   "device_token":"test_token",
-   "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1"
-}</t>
-  </si>
-  <si>
     <t>(pi)+.*(session_token)+</t>
   </si>
   <si>
@@ -2161,8 +2125,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "card_no": "4367421217324221910",
     "bind_mob": "13621643896"
@@ -2182,8 +2146,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "card_id": "BC0000013912",
     "verify_code": "123456",
@@ -2203,7 +2167,7 @@
     <t>/user_api_cn/v1/lianlian/prepare_repayment</t>
   </si>
   <si>
-    <t>(min_payment_outstanding)+.*(id)+.*(bank_name)+.*(image_url)+.*(card_num)+.*(statement_date)+.*(balance_outstanding)+.*(sum_balance)+.*(session_token)+</t>
+    <t>(min_payment_outstanding)+.*(statement_date)+.*(balance_outstanding)+.*(sum_balance)+.*(session_token)+</t>
   </si>
   <si>
     <t>132</t>
@@ -2216,8 +2180,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "card_id": "BC0000013912",
     "money_order": 0.01
@@ -2237,8 +2201,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "card_no": "4367421217324221910",
     "bind_mob": "13621643896",
@@ -2256,8 +2220,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "card_id": "BC0000013931",
     "verify_code": "874178",
@@ -2303,6 +2267,13 @@
     <t>/user_api_cn/v1/installment/prepare_installment</t>
   </si>
   <si>
+    <t>{
+    "user_id": "UR0000020088",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
+    "device_token": "test_token"
+}</t>
+  </si>
+  <si>
     <t>(min_payment")+.*(statement_balance)+.*(session_token)+.*(min_installment)+.*(max_installment)+</t>
   </si>
   <si>
@@ -2316,8 +2287,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "installment_amount": "1000.00",
     "term_id": "3",
@@ -2350,8 +2321,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "installment_amount": "1000.00",
     "bank_card_id": "BC0000001279",
@@ -2370,7 +2341,7 @@
   <si>
     <t>{
     "user_id": "UR0000020088",   
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "merchant_id": "MC0000006975",
     "order_id": "OR0000008594"
@@ -2390,8 +2361,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",   
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",   
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "merchant_id": "MC0000006975",
     "order_id": "OR0000008594",
@@ -2433,8 +2404,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088", 
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "statement_id": "ST0000005457"
 }</t>
@@ -2453,8 +2424,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000002731", 
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token"
 }</t>
   </si>
@@ -2496,8 +2467,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088", 
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "statement_id": "ST0000005374"
 }</t>
@@ -2513,8 +2484,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "statement_id": "ST0000005457"
 }</t>
@@ -2533,8 +2504,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "statement_id": "ST0000005457",
     "category_id": 1
@@ -2551,8 +2522,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088", 
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111", 
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "activity_id": "MT0000000030"
 }</t>
@@ -2568,8 +2539,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "contacts": [
         {
@@ -2598,8 +2569,8 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020088",
-    "session_token": "fbbd8a01-adf6-11e5-990f-9d0e6f03c1c1",
+    "user_id": "UR0000020111",
+    "session_token": "1b9bc483-b282-11e5-990f-9d0e6f03c1c1",
     "device_token": "test_token",
     "version": "0"
 }</t>
@@ -2608,52 +2579,18 @@
     <t>(phone)+.*(email)+.*(image_url)+.*(name)+.*(session_token)+</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>(id_image_status)+.*(account)+</t>
-  </si>
-  <si>
-    <t>{
-   "merchant_id": "MC0000007952",
-   "session_token": "274540fb-603e-11e5-8785-6d3eeeeedd88"
-}</t>
-  </si>
-  <si>
-    <t>{
-   "merchant_id": "MC0000007952",
-   "session_token": "274540fb-603e-11e5-8785-6d3eeeeedd88",
-   "business_name":"Sharp",
-   "address_province_id":"01",
-   "address_city_id":"1",
-   "address_district_id":"2",
-   "address_detail":"金融街1号",
-   "postal_code":"100010",
-   "zip_code":"010",
-   "office_phone":"56432536",
-   "web_site":"http://www.pierup.com"
-}</t>
-  </si>
-  <si>
-    <t>{
-       "merchant_id": "MC0000007540",
-       "session_token":"4f1c0f84-5b7c-11e5-be20-3beae5baf6a4",
-       "business_license":"330108000023135",
-       "organization_code":"123456789",
-       "tax_id":"123451234512345",
-       "legal_person_name":"张三",
-       "legal_person_id_number":"341221198001022256"
-}</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2687,6 +2624,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="文泉驿点阵正黑"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2733,7 +2677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2742,23 +2686,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2780,10 +2748,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALL143"/>
+  <dimension ref="A1:ALL142"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J95" activeCellId="12" sqref="J2 J8 J16 J21:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J102 J105:J106 J108 J115:J123 J126:J143"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J95" activeCellId="12" sqref="J2 J8 J13:J16 J19:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J96 J98:J102 J105:J106 J108 J115:J122 J125:J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2832,11 +2800,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2817,7 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2858,10 +2826,10 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2869,25 +2837,28 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2895,28 +2866,28 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2924,28 +2895,28 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2953,86 +2924,86 @@
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="487.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3040,61 +3011,61 @@
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>58</v>
       </c>
@@ -3104,26 +3075,26 @@
       <c r="C11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>63</v>
       </c>
@@ -3133,1546 +3104,1546 @@
       <c r="C12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>81</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="5" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="5" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="440.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="5" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="487.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="K23" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="B24" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="H25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="5" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="C26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>131</v>
+      <c r="H26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="H27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="487.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="H28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="5" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="H31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="H32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="H33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="K33" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="5" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="H34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="K34" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="B35" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="H35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="K35" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="B36" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="5" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="346.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="B37" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="H37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="H38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="AR38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AS38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AT38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AU38" s="2" t="s">
+      <c r="AU38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AV38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="AY38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="CI38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="CJ38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CK38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="CL38" s="2" t="s">
+      <c r="CL38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="CM38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="CP38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="CS38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="CP38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CQ38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CR38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CS38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="DZ38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="EA38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="EB38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="EC38" s="2" t="s">
+      <c r="EC38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="ED38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="EG38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EH38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EI38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="EJ38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="EG38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="EH38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="EI38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="EJ38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="FQ38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="FR38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="FS38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="FT38" s="2" t="s">
+      <c r="FT38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="FU38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FY38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="FZ38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="FX38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="FY38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="FZ38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="GA38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="HH38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="HI38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="HJ38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="HK38" s="2" t="s">
+      <c r="HK38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="HL38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="HO38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="HP38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="HQ38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="HR38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="HO38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="HP38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="HQ38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="HR38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="IY38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="IZ38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="JA38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="JB38" s="2" t="s">
+      <c r="JB38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="JC38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="JF38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="JG38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="JH38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="JI38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="JF38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="JG38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="JH38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="JI38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="KP38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="KQ38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="KR38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="KS38" s="2" t="s">
+      <c r="KS38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="KT38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="KW38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="KX38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="KY38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="KZ38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="KW38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="KX38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="KY38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="KZ38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="MG38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="MH38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="MI38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="MJ38" s="2" t="s">
+      <c r="MJ38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="MK38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="MN38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="MO38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="MP38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="MQ38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="MN38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="MO38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="MP38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="MQ38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="NX38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="NY38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="NZ38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="OA38" s="2" t="s">
+      <c r="OA38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="OB38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="OE38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="OF38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="OG38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="OH38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="OE38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="OF38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="OG38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="OH38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="PO38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="PP38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="PQ38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="PR38" s="2" t="s">
+      <c r="PR38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="PS38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="PV38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="PW38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="PX38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="PY38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="PV38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="PW38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="PX38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="PY38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="RF38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="RG38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="RH38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="RI38" s="2" t="s">
+      <c r="RI38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="RJ38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="RM38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="RN38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="RO38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="RP38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="RM38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="RN38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="RO38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="RP38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="SW38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="SX38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="SY38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="SZ38" s="2" t="s">
+      <c r="SZ38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="TA38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="TD38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="TE38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="TF38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="TG38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="TD38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="TE38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="TF38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="TG38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="UN38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="UO38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="UP38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="UQ38" s="2" t="s">
+      <c r="UQ38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="UR38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="UU38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="UV38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="UW38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="UX38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="UU38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="UV38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="UW38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="UX38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="WE38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="WF38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="WG38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="WH38" s="2" t="s">
+      <c r="WH38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="WI38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="WL38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="WM38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="WN38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="WO38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="WL38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="WM38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="WN38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="WO38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="XV38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="XW38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="XX38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="XY38" s="2" t="s">
+      <c r="XY38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="XZ38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="YC38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="YD38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="YE38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="YF38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="YC38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="YD38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="YE38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="YF38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="ZM38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ZN38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="ZO38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="ZP38" s="2" t="s">
+      <c r="ZP38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="ZQ38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="ZT38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ZU38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ZV38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="ZW38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="ZT38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ZU38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ZV38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="ZW38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="ABD38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ABE38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="ABF38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="ABG38" s="2" t="s">
+      <c r="ABG38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="ABH38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="ABK38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ABL38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ABM38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="ABN38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="ABK38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ABL38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ABM38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="ABN38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="ACU38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ACV38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="ACW38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="ACX38" s="2" t="s">
+      <c r="ACX38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="ACY38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="ADB38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ADC38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ADD38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="ADE38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="ADB38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ADC38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ADD38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="ADE38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="AEL38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AEM38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AEN38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AEO38" s="2" t="s">
+      <c r="AEO38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AEP38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AES38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AET38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AEU38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AEV38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="AES38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AET38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AEU38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AEV38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="AGC38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AGD38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AGE38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AGF38" s="2" t="s">
+      <c r="AGF38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AGG38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AGJ38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AGK38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AGL38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AGM38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="AGJ38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AGK38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AGL38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AGM38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="AHT38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AHU38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AHV38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AHW38" s="2" t="s">
+      <c r="AHW38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AHX38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AIA38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AIB38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AIC38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AID38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="AIA38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AIB38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AIC38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AID38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="AJK38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AJL38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AJM38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AJN38" s="2" t="s">
+      <c r="AJN38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AJO38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJR38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJS38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJT38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJU38" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="AJR38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJS38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJT38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJU38" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="ALB38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ALC38" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="ALD38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="ALE38" s="2" t="s">
+      <c r="ALE38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="ALF38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="ALI38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ALJ38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="ALK38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="ALL38" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="ALI38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ALJ38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="ALK38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="ALL38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="566.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="H39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="H40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="K40" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B41" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="H41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="5" t="s">
+      <c r="K41" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="K41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="H42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="5" t="s">
+      <c r="K42" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="K42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="H43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>206</v>
       </c>
@@ -4694,14 +4665,14 @@
       <c r="I44" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="8" t="s">
         <v>209</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>211</v>
       </c>
@@ -4723,14 +4694,14 @@
       <c r="I45" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="8" t="s">
         <v>214</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>216</v>
       </c>
@@ -4752,14 +4723,14 @@
       <c r="I46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="8" t="s">
         <v>219</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>220</v>
       </c>
@@ -4781,14 +4752,14 @@
       <c r="I47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="8" t="s">
         <v>223</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>225</v>
       </c>
@@ -4810,251 +4781,251 @@
       <c r="I48" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="K48" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="H49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="H50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="5" t="s">
+      <c r="K50" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="K50" s="0" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="H51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="5" t="s">
+      <c r="K51" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="K51" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B52" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="H52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="5" t="s">
+      <c r="K52" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="K52" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="H53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="5" t="s">
+      <c r="K53" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K53" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="H54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="5" t="s">
+      <c r="K54" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="K54" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B55" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="H55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="0" t="s">
+      <c r="K55" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B56" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="H56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>258</v>
+      <c r="K56" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>21</v>
@@ -5063,459 +5034,462 @@
         <v>14</v>
       </c>
       <c r="E57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="0" t="s">
+      <c r="H58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="5" t="s">
+      <c r="K58" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="K58" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B59" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="H59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="5" t="s">
+      <c r="K59" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="K59" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B60" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="H60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="5" t="s">
+      <c r="K60" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K60" s="6" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="0" t="s">
+      <c r="H61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="5" t="s">
+      <c r="K61" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="K61" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B62" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="H62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="5" t="s">
+      <c r="K62" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="K62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B63" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="H63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="5" t="s">
+      <c r="K63" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="K63" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B64" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="H64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K64" s="0" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="B65" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="0" t="s">
+      <c r="H65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="H66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="K66" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="0" t="s">
+      <c r="H67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="K67" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="H68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="5" t="s">
+      <c r="K68" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="K68" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B69" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="0" t="s">
+      <c r="H69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="5" t="s">
+      <c r="K69" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="K69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B70" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="H70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="0" t="s">
+      <c r="H71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="0" t="s">
+      <c r="H72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="5" t="s">
+      <c r="K72" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>341</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>21</v>
@@ -5524,535 +5498,538 @@
         <v>14</v>
       </c>
       <c r="E73" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K73" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B74" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="0" t="s">
+      <c r="H74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="5" t="s">
+      <c r="K74" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="K74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="B75" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="0" t="s">
+      <c r="H75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="K75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="B76" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="0" t="s">
+      <c r="H76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J76" s="5" t="s">
+      <c r="K76" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="K76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="0" t="s">
+      <c r="H77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="5" t="s">
+      <c r="K77" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="K77" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="0" t="s">
+      <c r="H78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="5" t="s">
+      <c r="K78" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="K78" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="0" t="s">
+      <c r="H79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="5" t="s">
+      <c r="K79" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="K79" s="0" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="0" t="s">
+      <c r="H80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="5" t="s">
+      <c r="K80" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="K80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="B81" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="0" t="s">
+      <c r="H81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="5" t="s">
+      <c r="K81" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="K81" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="B82" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="0" t="s">
+      <c r="H82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" s="5" t="s">
+      <c r="K82" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="K82" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="B83" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="0" t="s">
+      <c r="H83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>392</v>
-      </c>
       <c r="H84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="5" t="s">
-        <v>389</v>
+      <c r="J84" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="0" t="s">
+      <c r="H85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="B86" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="0" t="s">
+      <c r="H86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="0" t="s">
+      <c r="H87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" s="5" t="s">
+      <c r="K87" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="K87" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="B88" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="0" t="s">
+      <c r="H88" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" s="5" t="s">
+      <c r="K88" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="K88" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="B89" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="0" t="s">
+      <c r="H89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="5" t="s">
+      <c r="K89" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="K89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="B90" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="0" t="s">
+      <c r="H90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" s="5" t="s">
+      <c r="K90" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="K90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="B91" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>421</v>
-      </c>
       <c r="H91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="5" t="s">
-        <v>417</v>
+      <c r="J91" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>47</v>
@@ -6060,155 +6037,156 @@
     </row>
     <row r="92" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="C92" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="0" t="s">
+      <c r="H92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" s="5" t="s">
+      <c r="K92" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="K92" s="0" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="B93" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="0" t="s">
+      <c r="H93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>433</v>
-      </c>
       <c r="H94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="K94" s="6" t="s">
+      <c r="J94" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="K94" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="0" t="s">
+      <c r="H95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="H95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" s="5" t="s">
+      <c r="K95" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="K95" s="0" t="s">
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="0" t="s">
+      <c r="H96" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="H96" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="5" t="s">
+      <c r="K96" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="K96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="B97" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>13</v>
@@ -6225,95 +6203,95 @@
       <c r="I97" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J97" s="5" t="s">
+      <c r="J97" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="K97" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="B98" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="0" t="s">
+      <c r="H98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="5" t="s">
+      <c r="K98" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="K98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="B99" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="0" t="s">
+      <c r="H99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="H99" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99" s="5" t="s">
+      <c r="K99" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="K99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="B100" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="0" t="s">
+      <c r="H100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>47</v>
@@ -6321,242 +6299,242 @@
     </row>
     <row r="101" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="0" t="s">
+      <c r="H101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="H101" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="5" t="s">
+      <c r="K101" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="K101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="534.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="0" t="s">
+      <c r="H102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="H102" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="5" t="s">
+      <c r="K102" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="K102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="0" t="s">
+      <c r="H103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J103" s="5" t="s">
+      <c r="K103" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="K103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="H104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="H104" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J104" s="5" t="s">
+      <c r="K104" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="K104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="B105" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="H105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="H105" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J105" s="5" t="s">
+      <c r="K105" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="H106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="H106" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106" s="5" t="s">
+      <c r="K106" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="K106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="H107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="H107" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="5" t="s">
+      <c r="K107" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="K107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="0" t="s">
+      <c r="H108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="H108" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J108" s="5" t="s">
+      <c r="K108" s="0" t="s">
         <v>498</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>500</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>501</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>21</v>
@@ -6565,24 +6543,27 @@
         <v>14</v>
       </c>
       <c r="E109" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K109" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K109" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>504</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>505</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>21</v>
@@ -6591,24 +6572,27 @@
         <v>14</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K110" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="H110" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K110" s="0" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>509</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>21</v>
@@ -6617,24 +6601,27 @@
         <v>14</v>
       </c>
       <c r="E111" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K111" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>512</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>513</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>21</v>
@@ -6643,24 +6630,27 @@
         <v>14</v>
       </c>
       <c r="E112" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K112" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="H112" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>517</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>21</v>
@@ -6669,24 +6659,27 @@
         <v>14</v>
       </c>
       <c r="E113" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K113" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>21</v>
@@ -6695,854 +6688,831 @@
         <v>14</v>
       </c>
       <c r="E114" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K114" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="H114" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="H115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="H115" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J115" s="5" t="s">
+      <c r="K115" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="K115" s="0" t="s">
+      <c r="B116" s="0" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="C116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="H116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="K116" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="5" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="K116" s="0" t="s">
+      <c r="B117" s="0" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="C117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="H117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="0" t="s">
+      <c r="K117" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="H117" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="5" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="K117" s="0" t="s">
+      <c r="B118" s="0" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="C118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="H118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="0" t="s">
+      <c r="K118" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="H118" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" s="5" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="K118" s="0" t="s">
+      <c r="B119" s="0" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="C119" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="H119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K119" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="H119" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J119" s="5" t="s">
+      <c r="B120" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="K119" s="0" t="s">
+      <c r="C120" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="H120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="K120" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="0" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="H120" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K120" s="0" t="s">
+      <c r="B121" s="0" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="C121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="H121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="0" t="s">
+      <c r="K121" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="H121" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J121" s="5" t="s">
+      <c r="B122" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="K121" s="0" t="s">
+      <c r="C122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="H122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="K122" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="0" t="s">
+      <c r="B123" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="H122" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J122" s="5" t="s">
+      <c r="C123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="K122" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="H123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="K123" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="0" t="s">
+      <c r="B124" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="H123" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="5" t="s">
+      <c r="C124" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="K123" s="0" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="H124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K124" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B124" s="0" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="0" t="s">
+      <c r="B125" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="H124" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J124" s="5" t="s">
+      <c r="C125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="K124" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="H125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="K125" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="0" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="H125" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="0" t="s">
+      <c r="B126" s="0" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="C126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="H126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="0" t="s">
+      <c r="K126" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="H126" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K126" s="0" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="B127" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="C127" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="0" t="s">
+      <c r="H127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K127" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="H127" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="5" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="K127" s="0" t="s">
+      <c r="B128" s="0" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="C128" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="H128" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="0" t="s">
+      <c r="K128" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="H128" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K128" s="0" t="s">
+      <c r="B129" s="0" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="C129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="H129" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="0" t="s">
+      <c r="K129" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="H129" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="5" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="K129" s="0" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="B130" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="C130" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="0" t="s">
+      <c r="H130" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="H130" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J130" s="5" t="s">
+      <c r="K130" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="K130" s="0" t="s">
+      <c r="B131" s="0" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="C131" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="H131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K131" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="0" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="H131" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="5" t="s">
+      <c r="B132" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="K131" s="0" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="C132" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="H132" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="K132" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="0" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="H132" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K132" s="0" t="s">
+      <c r="B133" s="0" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="C133" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="H133" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="0" t="s">
+      <c r="K133" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="H133" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J133" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K133" s="0" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="B134" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="0" t="s">
+      <c r="H134" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="H134" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" s="5" t="s">
+      <c r="K134" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="K134" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="B135" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="C135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="0" t="s">
+      <c r="H135" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K135" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="H135" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J135" s="5" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="K135" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="C136" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="H136" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="K136" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="0" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="H136" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K136" s="0" t="s">
+      <c r="B137" s="0" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="C137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="H137" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="0" t="s">
+      <c r="K137" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="H137" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="K137" s="0" t="s">
+      <c r="B138" s="0" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="C138" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="H138" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C138" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="0" t="s">
+      <c r="K138" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="H138" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" s="5" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="K138" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="B139" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="C139" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="0" t="s">
+      <c r="H139" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="H139" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" s="5" t="s">
+      <c r="K139" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="K139" s="0" t="s">
+      <c r="B140" s="0" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="C140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="H140" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="0" t="s">
+      <c r="K140" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="455.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="H140" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J140" s="5" t="s">
+      <c r="B141" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="K140" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="C141" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="H141" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="0" t="s">
+      <c r="K141" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="H141" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" s="5" t="s">
+      <c r="B142" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="K141" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="C142" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="H142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="0" t="s">
+      <c r="K142" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="K142" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="H143" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="K143" s="0" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -7711,7 +7681,6 @@
     <hyperlink ref="D140" r:id="rId162" display="https://192.168.1.254:443"/>
     <hyperlink ref="D141" r:id="rId163" display="https://192.168.1.254:443"/>
     <hyperlink ref="D142" r:id="rId164" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D143" r:id="rId165" display="https://192.168.1.254:443"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7721,514 +7690,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="17" sqref="J2 J8 J16 J21:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J102 J105:J106 J108 J115:J123 J126:J143 C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.1929133858268" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="43.0472440944882" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.1929133858268" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="17" sqref="J2 J8 J16 J21:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J102 J105:J106 J108 J115:J123 J126:J143 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="9.07086614173228" collapsed="true"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="17" sqref="J2 J8 J16 J21:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J102 J105:J106 J108 J115:J123 J126:J143 A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="9.07086614173228" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D6" r:id="rId6" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D7" r:id="rId7" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D9" r:id="rId9" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D10" r:id="rId10" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D11" r:id="rId11" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D12" r:id="rId12" display="https://192.168.1.254:443"/>
-    <hyperlink ref="D13" r:id="rId13" display="https://192.168.1.254:443"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="17" sqref="J2 J8 J16 J21:J25 J27:J32 J34 J37 J39 J44:J45 J47:J53 J63:J68 J75:J84 J89:J102 J105:J106 J108 J115:J123 J126:J143 C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="9.07086614173228" collapsed="true"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/test/resources/Http_Request_workbook_Data.xlsx
+++ b/src/test/resources/Http_Request_workbook_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="398">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Pattern</t>
   </si>
   <si>
+    <t>Templet</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -65,10 +68,13 @@
     <t>application/json</t>
   </si>
   <si>
-    <t>{ "merchant_id":"MC0000006975","user_id":"UR0000020111","session_token":"templet_session_token", "device_token":"test_token"}</t>
+    <t>{ "merchant_id":"MC0000006975","user_id":"default_user_id","session_token":"templet_session_token", "device_token":"test_token"}</t>
   </si>
   <si>
     <t>(merchant_id)+</t>
+  </si>
+  <si>
+    <t>merchant_id,session_token</t>
   </si>
   <si>
     <t>2</t>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>(status_bit)+.*(resend_time)+</t>
+  </si>
+  <si>
+    <t>status_bit,resend_time</t>
   </si>
   <si>
     <t>7</t>
@@ -113,6 +122,9 @@
     <t>(passcode_expiration)+.*(status_bit)+.*(user_id)+.*(device_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>passcode_expiration,status_bit,user_id,device_id,session_token</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -123,7 +135,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "device_token": "test_token",
     "session_token": "templet_session_token",
     "name": "DSX",
@@ -135,6 +147,9 @@
     <t>(status_bit)+.*(session_token)+</t>
   </si>
   <si>
+    <t>status_bit,session_token</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -145,7 +160,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "device_token": "test_token",
     "session_token": "templet_session_token"
 }</t>
@@ -154,6 +169,9 @@
     <t>(phone)+.*(id_number)+.*(id_verified)+.*(session_token)+.*(image_url)+.*(email)+.*(status_bit)+.*(dob)+.*(name)+.*(user_id)+</t>
   </si>
   <si>
+    <t>phone,id_number,id_verified,session_token,image_url,email,status_bit,dob,name,user_id</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -164,7 +182,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "device_token": "test_token",
    "session_token":"templet_session_token",
    "type":"1",
@@ -189,6 +207,9 @@
     <t>(expiration)+.*(code_id)+.*(sms_no)+</t>
   </si>
   <si>
+    <t>expiration,code_id,sms_no</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -199,7 +220,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token"
 }</t>
@@ -208,6 +229,9 @@
     <t>(phone)+.*(address)+.*(id_number)+.*(address_id)+.*(name)+.*(is_primary)+.*(session_token)+</t>
   </si>
   <si>
+    <t>phone,address,id_number,address_id,name,is_primary,session_token</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -218,7 +242,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "address_id": "AD0000001612"
@@ -228,6 +252,9 @@
     <t>(county_district_id)+.*(phone)+.*(province_id)+.*(id_number)+.*(id_front_image_url)+.*(id_back_image_url)+.*(id_card_id)+.*(session_token)+.*(city_id)+.*(address_id)+.*(postal_code)+.*(name)+.*(is_primary)+.*(address_detail)+</t>
   </si>
   <si>
+    <t>county_district_id,phone,province_id,id_number,id_front_image_url,id_back_image_url,id_card_id,session_token,city_id,address_id,postal_code,name,is_primary,address_detail</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -238,7 +265,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "name":"QQQWWW",
@@ -254,6 +281,9 @@
     <t>(address_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>address_id,session_token</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -264,7 +294,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "device_token": "test_token",
    "session_token":"templet_session_token",
    "address_id": "AD0000000479"
@@ -274,6 +304,9 @@
     <t>(session_token)+</t>
   </si>
   <si>
+    <t>session_token</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -284,7 +317,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "address_id": "AD0000002501",
@@ -309,7 +342,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "device_token": "test_token",
    "session_token":"templet_session_token",
    "address_id": "AD0000000481"
@@ -326,7 +359,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "name": "饶骏华",
    "session_token":"templet_session_token",
    "device_token":"test_token"
@@ -336,6 +369,9 @@
     <t>(if_match)+.*(id_number)+.*(id_front_image_url)+.*(id_back_image_url)+.*(session_token)+</t>
   </si>
   <si>
+    <t>if_match,id_number,id_front_image_url,id_back_image_url,session_token</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -346,7 +382,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "device_token": "test_token",
    "session_token":"templet_session_token",
    "password": "BC0000001279"
@@ -374,6 +410,9 @@
     <t>(expiration)+.*(resend_time)+.*(code_id)+.*(sms_no)+</t>
   </si>
   <si>
+    <t>expiration,resend_time,code_id,sms_no</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -393,6 +432,9 @@
     <t>(token)+</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
@@ -411,6 +453,9 @@
     <t>(message)+.*(result)+</t>
   </si>
   <si>
+    <t>message,result</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -421,7 +466,7 @@
   </si>
   <si>
     <t>{
-    "user_id":"UR0000020111",
+    "user_id":"default_user_id",
     "session_token":"templet_session_token",
     "invitation_code":"365WYB",
     "device_token":"test_token"
@@ -438,7 +483,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "device_token": "test_token",
    "session_token":"templet_session_token"
 }</t>
@@ -447,6 +492,9 @@
     <t>(bank_id)+.*(bank_name)+.*(image_url)+(status_bit)+.*(card_num)+.*(user_id)+.*(linked_phone)+.*(session_token)+</t>
   </si>
   <si>
+    <t>bank_id,bank_name,image_url,status_bit,card_num,user_id,linked_phone,session_token</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -457,16 +505,13 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "card_id": "BC0000001279"
 }</t>
   </si>
   <si>
-    <t>(session+token)+</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -476,14 +521,6 @@
     <t>/user_api_cn/v1/user/delete_bank_card</t>
   </si>
   <si>
-    <t>{
-   "user_id":"UR0000020111",
-   "session_token":"templet_session_token",
-   "device_token":"test_token",
-   "bank_card_id": "BC0000001279"
-}</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -494,7 +531,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token"
 }</t>
@@ -503,6 +540,9 @@
     <t>(category)+.*(credit_limit)+.*(status_bit)+.*(id_verified)+.*(name)+.*(shadow_limit)+.*(note)+.*(session_token)+</t>
   </si>
   <si>
+    <t>category,credit_limit,status_bit,id_verified,name,shadow_limit,note,session_token</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -513,7 +553,7 @@
   </si>
   <si>
     <t>{
- "user_id": "UR0000020111",
+ "user_id": "default_user_id",
  "device_token": "test_token",
  "session_token": "templet_session_token",
  "old_password":"123456a",
@@ -540,7 +580,7 @@
   </si>
   <si>
     <t>{
- "user_id": "UR0000020111",
+ "user_id": "default_user_id",
  "device_token": "test_token",
  "session_token": "templet_session_token"
 }</t>
@@ -549,6 +589,9 @@
     <t>(invitation_code)+.*(invitation_bouns)+.*(session_token)+</t>
   </si>
   <si>
+    <t>invitation_code,invitation_bouns,session_token</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
@@ -560,7 +603,7 @@
   <si>
     <t>{
  "merchant_id": "MC0000006975",
- "user_id": "UR0000020111",
+ "user_id": "default_user_id",
  "session_token": "templet_session_token",
  "device_token": "test_token"
 }</t>
@@ -569,6 +612,9 @@
     <t>(user_id)+.*(merchant_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>user_id,merchant_id,session_token</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -577,7 +623,7 @@
   <si>
     <t>{
     "merchant_id": "AAA000000002",
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token"
 }</t>
@@ -593,7 +639,7 @@
   </si>
   <si>
     <t>{
-"user_id":"UR0000020111",
+"user_id":"default_user_id",
 "session_token":"templet_session_token",
 "device_token":"test_token"
 }</t>
@@ -602,6 +648,9 @@
     <t>(id_image_status)+.*(account_id)+.*(account)+.*(guide_url)+.*(auth_url)+.*(session_token)+</t>
   </si>
   <si>
+    <t>id_image_status,account_id,account,guide_url,auth_url,session_token</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
@@ -612,7 +661,7 @@
   </si>
   <si>
     <t>{
-"user_id":"UR0000020111",
+"user_id":"default_user_id",
 "session_token":"templet_session_token",
 "device_token":"test_token",
 "account_id":"1"
@@ -622,6 +671,9 @@
     <t>(info_bit)+.*(session_token)+</t>
   </si>
   <si>
+    <t>info_bit,session_token</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
@@ -632,7 +684,7 @@
   </si>
   <si>
     <t>{
-    "user_id":"UR0000020111",
+    "user_id":"default_user_id",
     "session_token":"templet_session_token",
     "device_token":"test_token"
 }</t>
@@ -648,7 +700,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "merchant_id":"MC0000006975",
@@ -659,6 +711,9 @@
     <t>(amount)+.*(expiration)+.*(merchant_name)+.*(session_token)+</t>
   </si>
   <si>
+    <t>amount,expiration,merchant_name,session_token</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -669,7 +724,7 @@
   </si>
   <si>
     <t>{
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "merchant_id":"MC0000006975",
@@ -685,6 +740,9 @@
     <t>(callback_body_template)+.*(callback_url)+.*(merchant_id)+.*(transaction_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>callback_body_template,callback_url,merchant_id,transaction_id,session_token</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -709,6 +767,9 @@
     <t>(merchant_id)+.*(sub_total)+.*(shipping)+.*(return_url)+.*(order_detail)+</t>
   </si>
   <si>
+    <t>merchant_id,sub_total,shipping,return_url,order_detail</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -729,6 +790,9 @@
     <t>(order_id)+</t>
   </si>
   <si>
+    <t>order_id</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
@@ -742,7 +806,7 @@
    "merchant_id":"MC0000006975",
    "order_id": "OR0000008578",
    "address_id":"AD0000009182",
-   "user_id":"UR0000020111",
+   "user_id":"default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token"
 }</t>
@@ -771,7 +835,7 @@
   <si>
     <t>{
    "merchant_id":"MC0000006975",
-   "user_id": "UR0000020111",
+   "user_id": "default_user_id",
    "session_token":"templet_session_token",
    "device_token":"test_token",
    "start":"0",
@@ -782,6 +846,9 @@
     <t>(merchant_name)+.*(paid_order)+.*(session_token)+</t>
   </si>
   <si>
+    <t>merchant_name,paid_order,session_token</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -800,6 +867,9 @@
     <t>(month_pay)+.*(month_charge)+.*(logistics_id)+.*(created_on)+.*(merchant_name)+.*(order_id)+.*(receiver_phone)+.*(receiver_name)+.*(return_url)+.*(shipping)+.*(order_detail)+.*(total)+.*(product)+.*(id)+.*(logo)+.*(detail)+.*(price)+.*(count)+.*(tax)+.*(term_count)+.*(merchant_id)+.*(grand_total)+</t>
   </si>
   <si>
+    <t>month_pay,month_charge,logistics_id,created_on,merchant_name,order_id,receiver_phone,receiver_name,return_url,shipping,order_detail,total,product,id,logo,detail,price,count,tax,term_count,merchant_id,grand_total</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
@@ -812,7 +882,7 @@
     <t>{
  "logistics_id":"BV20158889741007",
  "shipping_company_id":"SC0000012382",
- "user_id":"UR0000020111",
+ "user_id":"default_user_id",
  "session_token":"templet_session_token",
 "device_token":"test_token"
 }</t>
@@ -821,6 +891,9 @@
     <t>(tracking_list)+.*(tracking_desc)+.*(occur_time)+.*(session_token)+</t>
   </si>
   <si>
+    <t>tracking_list,tracking_desc,occur_time,session_token</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
@@ -836,6 +909,9 @@
     <t>(url_password_reset)+</t>
   </si>
   <si>
+    <t>url_password_reset</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -848,6 +924,9 @@
     <t>(url_installment_terms)+.*(url_installment_details)+</t>
   </si>
   <si>
+    <t>url_installment_terms,url_installment_details</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -860,6 +939,9 @@
     <t>(url_loan_details)+.*(url_loan_terms)+</t>
   </si>
   <si>
+    <t>url_loan_details,url_loan_terms</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
@@ -872,6 +954,9 @@
     <t>(url_features)+</t>
   </si>
   <si>
+    <t>url_features</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
@@ -884,6 +969,9 @@
     <t>(url_fingerprint)+</t>
   </si>
   <si>
+    <t>url_fingerprint</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
@@ -896,6 +984,9 @@
     <t>(url_faq)+</t>
   </si>
   <si>
+    <t>url_faq</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
@@ -906,7 +997,7 @@
   </si>
   <si>
     <t>{
-   "user_id": "UR0000020111",
+   "user_id": "default_user_id",
    "device_token":"test_token",
    "session_token": "templet_session_token"
 }</t>
@@ -924,6 +1015,9 @@
     <t>(pi)+.*(session_token)+</t>
   </si>
   <si>
+    <t>pi,session_token</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -934,7 +1028,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "card_no": "4367421217324221910",
@@ -945,6 +1039,9 @@
     <t>(card_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>card_id,session_token</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
@@ -955,7 +1052,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "card_id": "BC0000013912",
@@ -967,6 +1064,9 @@
     <t>(token)+.*(status_bit)+.*(id_verified)+.*(session_token)+</t>
   </si>
   <si>
+    <t>token,status_bit,id_verified,session_token</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
@@ -979,6 +1079,9 @@
     <t>(min_payment_outstanding)+.*(statement_date)+.*(balance_outstanding)+.*(sum_balance)+.*(session_token)+</t>
   </si>
   <si>
+    <t>min_payment_outstanding,statement_date,balance_outstanding,sum_balance,session_token</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -989,7 +1092,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "card_id": "BC0000013912",
@@ -1000,6 +1103,9 @@
     <t>(no_order)+.*(money_order)+.*(card_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>no_order,money_order,card_id,session_token</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -1010,7 +1116,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "card_no": "4367421217324221910",
@@ -1029,7 +1135,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "card_id": "BC0000013931",
@@ -1049,7 +1155,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "email": "hmily-xinxiang@163.com",
     "password": "123456enter"
 }</t>
@@ -1061,12 +1167,15 @@
     <t>Case 62</t>
   </si>
   <si>
-    <t>/user_api_cn/v1/credit/user_info_score?user_id="+UR0000020111+"&amp;info_id="+1</t>
+    <t>/user_api_cn/v1/credit/user_info_score?user_id=default_user_id&amp;info_id=1</t>
   </si>
   <si>
     <t>(score)+.*(last_updated)+.*(user_id)+.*(information_id)+</t>
   </si>
   <si>
+    <t>score,last_updated,user_id,information_id</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
@@ -1076,7 +1185,10 @@
     <t>/user_api_cn/v1/installment/prepare_installment</t>
   </si>
   <si>
-    <t>(min_payment")+.*(statement_balance)+.*(session_token)+.*(min_installment)+.*(max_installment)+</t>
+    <t>(min_payment)+.*(statement_balance)+.*(session_token)+.*(min_installment)+.*(max_installment)+</t>
+  </si>
+  <si>
+    <t>min_payment,statement_balance,session_token,min_installment,max_installment</t>
   </si>
   <si>
     <t>64</t>
@@ -1089,7 +1201,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "installment_amount": "1000.00",
@@ -1101,6 +1213,9 @@
     <t>(installment_id)+.*(session_token)+</t>
   </si>
   <si>
+    <t>installment_id,session_token</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
@@ -1113,6 +1228,9 @@
     <t>(max_loan)+.*(free_loan)+.*(min_loan)+.*(session_token)+</t>
   </si>
   <si>
+    <t>max_loan,free_loan,min_loan,session_token</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
@@ -1123,7 +1241,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "installment_amount": "1000.00",
@@ -1142,7 +1260,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",   
+    "user_id": "default_user_id",   
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "merchant_id": "MC0000006975",
@@ -1153,6 +1271,9 @@
     <t>(id)+.*(month_pay)+.*(month_charge)+.*(terms)+.*(installment_amount)+.*(session_token)+</t>
   </si>
   <si>
+    <t>id,month_pay,month_charge,terms,installment_amount,session_token</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
@@ -1163,7 +1284,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",   
+    "user_id": "default_user_id",   
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "merchant_id": "MC0000006975",
@@ -1184,6 +1305,9 @@
     <t>(month_charge)+.*(installment_type)+.*(month_corpus)+.*(current_term)+.*(original_bal)+.*(session_token)+</t>
   </si>
   <si>
+    <t>month_charge,installment_type,month_corpus,current_term,original_bal,session_token</t>
+  </si>
+  <si>
     <t>70</t>
   </si>
   <si>
@@ -1196,6 +1320,9 @@
     <t>(available_limit)+.*(min_payment_outstanding)+.*(credit_limit)+.*(statement_date)+.*(balance_outstanding)+.*(balance_sum)+.*(due_date)+.*(session_token)+.*(currency)+</t>
   </si>
   <si>
+    <t>available_limit,min_payment_outstanding,credit_limit,statement_date,balance_outstanding,balance_sum,due_date,session_token,currency</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
@@ -1206,7 +1333,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111", 
+    "user_id": "default_user_id", 
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "statement_id": "ST0000005457"
@@ -1216,6 +1343,9 @@
     <t>(statement_date)+.*(payment_credit)+.*(installment_able)+.*(last_statement_balance)+.*(session_token)+.*(statement_id)+.*(purchase_debit)+.*(last_statement_date)+.*(min_payment)+.*(statement_balance)+.*(due_date)+</t>
   </si>
   <si>
+    <t>statement_date,payment_credit,installment_able,last_statement_balance,session_token,statement_id,purchase_debit,last_statement_date,min_payment,statement_balance,due_date</t>
+  </si>
+  <si>
     <t>72</t>
   </si>
   <si>
@@ -1226,7 +1356,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111", 
+    "user_id": "default_user_id", 
     "session_token": "templet_session_token",
     "device_token": "test_token"
 }</t>
@@ -1244,6 +1374,9 @@
     <t>(amount)+.*(title)+.*(activity_id)+.*(image_url)+.*(created_on)+.*(session_token)+</t>
   </si>
   <si>
+    <t>amount,title,activity_id,image_url,created_on,session_token</t>
+  </si>
+  <si>
     <t>74</t>
   </si>
   <si>
@@ -1256,6 +1389,9 @@
     <t>(last_statement_date)+.*(amount)+.*(title)+.*(activity_id)+.*(image_url)+.*(created_on)+.*(statement_date)+.*(payment_credit)+.*(session_token)+.*(statement_id)+</t>
   </si>
   <si>
+    <t>last_statement_date,amount,title,activity_id,image_url,created_on,statement_date,payment_credit,session_token,statement_id</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -1266,7 +1402,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111", 
+    "user_id": "default_user_id", 
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "statement_id": "ST0000005374"
@@ -1283,7 +1419,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "statement_id": "ST0000005457"
@@ -1293,6 +1429,9 @@
     <t>(last_statement_date)+.*(total_amount)+.*(count)+.*(category_name)+.*(category_id)+.*(statement_date)+.*(total_balance)+.*(session_token)+</t>
   </si>
   <si>
+    <t>last_statement_date,total_amount,count,category_name,category_id,statement_date,total_balance,session_token</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
@@ -1303,7 +1442,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "statement_id": "ST0000005457",
@@ -1321,7 +1460,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111", 
+    "user_id": "default_user_id", 
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "activity_id": "MT0000000030"
@@ -1331,6 +1470,9 @@
     <t>(session_token)+.*(currency)+</t>
   </si>
   <si>
+    <t>session_token,currency</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
@@ -1341,7 +1483,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "contacts": [
@@ -1371,7 +1513,7 @@
   </si>
   <si>
     <t>{
-    "user_id": "UR0000020111",
+    "user_id": "default_user_id",
     "session_token": "templet_session_token",
     "device_token": "test_token",
     "version": "0"
@@ -1379,6 +1521,12 @@
   </si>
   <si>
     <t>(phone)+.*(email)+.*(image_url)+.*(name)+.*(session_token)+</t>
+  </si>
+  <si>
+    <t>phone,email,image_url,name,session_token</t>
+  </si>
+  <si>
+    <t>Case 81</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1537,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1423,13 +1571,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="文泉驿点阵正黑"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1482,7 +1623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1531,10 +1672,6 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1553,10 +1690,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALL75"/>
+  <dimension ref="A1:ALL76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1608,2752 +1745,2999 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="424.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="471.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>62</v>
+      <c r="L13" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="111.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>149</v>
+        <v>166</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>154</v>
+        <v>172</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>163</v>
+        <v>182</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="518.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>168</v>
+        <v>188</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>173</v>
+        <v>194</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS38" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS38" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="AT38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AV38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AY38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="BB38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="CI38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="CJ38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="CK38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CL38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CM38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="CP38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CQ38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CR38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="CS38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="DZ38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="EA38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="EB38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="EC38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="ED38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="EG38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EH38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EI38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="EJ38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="FQ38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="FR38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="FS38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="FT38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="FU38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="FX38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="FY38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="FZ38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="GA38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="HH38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="HI38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="HJ38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="HK38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="HL38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="HO38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="HP38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="HQ38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="HR38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="IY38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="IZ38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="JA38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="JB38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="JC38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="JF38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="JG38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="JH38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="JI38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="KP38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="KQ38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="KR38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="KS38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="KT38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="KW38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="KX38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="KY38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="KZ38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="MG38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="MH38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="MI38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="MJ38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="MK38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="MN38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="MO38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="MP38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="MQ38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="NX38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="NY38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="NZ38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="OA38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="OB38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="OE38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="OF38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="OG38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="OH38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="PO38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="PP38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="PQ38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="PR38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="PS38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="PV38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PW38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="PX38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="PY38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="RF38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="RG38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="RH38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="RI38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="RJ38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="RM38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="RN38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="RO38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="RP38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="SW38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="SX38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="SY38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="SZ38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="TA38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="TD38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="TE38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="TF38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="TG38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="UN38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="UO38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="UP38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="UQ38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="UR38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="UU38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="UV38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="UW38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="UX38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="WE38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="WF38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="WG38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="WH38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="WI38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="WL38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="WM38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="WN38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="WO38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="XV38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="XW38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="XX38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="XY38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="XZ38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="YC38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="YD38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="YE38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="YF38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="ZM38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ZN38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="ZO38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ZP38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="ZQ38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="ZT38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ZU38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ZV38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="ZW38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="ABD38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ABE38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="ABF38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ABG38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="ABH38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="ABK38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ABL38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ABM38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="ABN38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="ACU38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ACV38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="ACW38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ACX38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="ACY38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="ADB38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ADC38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ADD38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="ADE38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AEL38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AEM38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AEN38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AEO38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AEP38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AES38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AET38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AEU38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AEV38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AGC38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AGD38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AGE38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AGF38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AGG38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AGJ38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AGK38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AGL38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AGM38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AHT38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AHU38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AHV38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AHW38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AHX38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AIA38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AIB38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AIC38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AID38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="AJK38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="AJL38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AJM38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJN38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJO38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="AJR38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJS38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJT38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="AJU38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="ALB38" s="0" t="n">
         <v>39</v>
       </c>
       <c r="ALC38" s="0" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="ALD38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="ALE38" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="ALF38" s="0" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="ALI38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALJ38" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALK38" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="ALL38" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>195</v>
+        <v>219</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>200</v>
+        <v>225</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="0" t="s">
-        <v>205</v>
+        <v>231</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="0" t="s">
-        <v>209</v>
+        <v>236</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="0" t="s">
-        <v>213</v>
+        <v>241</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="0" t="s">
-        <v>217</v>
+        <v>246</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="0" t="s">
-        <v>221</v>
+        <v>251</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="0" t="s">
-        <v>225</v>
+        <v>256</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>233</v>
+        <v>265</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>243</v>
+        <v>277</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>247</v>
+        <v>282</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>252</v>
+        <v>288</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>252</v>
+        <v>288</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="0" t="s">
-        <v>268</v>
+        <v>305</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>272</v>
+        <v>310</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>277</v>
+        <v>316</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>281</v>
+        <v>321</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>277</v>
+        <v>316</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="205.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>290</v>
+        <v>331</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="220.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>277</v>
+        <v>316</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>298</v>
+        <v>340</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>302</v>
+        <v>345</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>307</v>
+        <v>351</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>315</v>
+        <v>360</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>319</v>
+        <v>365</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>315</v>
+        <v>360</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>328</v>
+        <v>375</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>315</v>
+        <v>360</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="173.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>337</v>
+        <v>385</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="455.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>346</v>
+        <v>395</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
